--- a/Test_summary.xlsx
+++ b/Test_summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f195b12034924fc8/MTV-LA2-Paper/fine-tuning/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="441" documentId="11_F25DC773A252ABDACC1048B5B9DB74585BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9A628F-93F4-4965-92C0-47013FD5BD0E}"/>
+  <xr:revisionPtr revIDLastSave="509" documentId="11_F25DC773A252ABDACC1048B5B9DB74585BDE58E5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A67E09F-0DB8-4E2E-80BC-3D80B44C9223}"/>
   <bookViews>
-    <workbookView xWindow="32745" yWindow="2535" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7544" uniqueCount="3384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7568" uniqueCount="3396">
   <si>
     <t>CAS number</t>
   </si>
@@ -10191,6 +10191,42 @@
   </si>
   <si>
     <t>Format</t>
+  </si>
+  <si>
+    <t>Model 1S</t>
+  </si>
+  <si>
+    <t>Model 2S</t>
+  </si>
+  <si>
+    <t>Model 3S</t>
+  </si>
+  <si>
+    <t>Model 1I</t>
+  </si>
+  <si>
+    <t>Model 2I</t>
+  </si>
+  <si>
+    <t>Model 3I</t>
+  </si>
+  <si>
+    <t>Model 1R</t>
+  </si>
+  <si>
+    <t>Model 2R</t>
+  </si>
+  <si>
+    <t>Model 3R</t>
+  </si>
+  <si>
+    <t>Model 1P</t>
+  </si>
+  <si>
+    <t>Model 2P</t>
+  </si>
+  <si>
+    <t>Model 3P</t>
   </si>
 </sst>
 </file>
@@ -10200,7 +10236,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10299,6 +10335,12 @@
     <font>
       <sz val="11"/>
       <color theme="2" tint="-0.749992370372631"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -10558,7 +10600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -10748,6 +10790,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10763,10 +10838,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11034,7 +11105,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R477"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11307,7 +11380,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>3351</v>
+        <v>3384</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3354</v>
@@ -11350,7 +11423,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
-        <v>3352</v>
+        <v>3385</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3356</v>
@@ -11393,7 +11466,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>3353</v>
+        <v>3386</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>3355</v>
@@ -11674,7 +11747,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
-        <v>3351</v>
+        <v>3387</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>3354</v>
@@ -11717,7 +11790,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
-        <v>3352</v>
+        <v>3388</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>3356</v>
@@ -11760,7 +11833,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="31" t="s">
-        <v>3353</v>
+        <v>3389</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>3355</v>
@@ -12041,7 +12114,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
-        <v>3351</v>
+        <v>3390</v>
       </c>
       <c r="B33" s="21" t="s">
         <v>3354</v>
@@ -12084,7 +12157,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
-        <v>3352</v>
+        <v>3391</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>3356</v>
@@ -12127,7 +12200,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="31" t="s">
-        <v>3353</v>
+        <v>3392</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>3355</v>
@@ -12396,7 +12469,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
-        <v>3351</v>
+        <v>3393</v>
       </c>
       <c r="B43" s="21" t="s">
         <v>3354</v>
@@ -12439,7 +12512,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
-        <v>3352</v>
+        <v>3394</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>3356</v>
@@ -12482,7 +12555,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="31" t="s">
-        <v>3353</v>
+        <v>3395</v>
       </c>
       <c r="B45" s="32" t="s">
         <v>3355</v>
@@ -36492,26 +36565,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9CF03FC-B61F-4532-8D38-74EF01317123}">
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41:S49"/>
+    <sheetView topLeftCell="A15" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="9" width="8.5703125" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="6" max="6" width="7" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>3376</v>
       </c>
@@ -36524,352 +36600,361 @@
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
       <c r="J1" s="65"/>
-      <c r="K1" s="66"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="K1" s="65"/>
+      <c r="L1" s="66"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>3348</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="45" t="s">
         <v>3383</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="D2" s="27" t="s">
         <v>3358</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>3359</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="28" t="s">
         <v>3360</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>3361</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>3366</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="I2" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="J2" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="K2" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="L2" s="53" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
         <v>3382</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="C3" s="58">
-        <f>C13+C23+C33+C43</f>
+      <c r="D3" s="58">
+        <f>D13+D23+D33+D43</f>
         <v>27</v>
       </c>
-      <c r="D3" s="60">
-        <f t="shared" ref="D3:G3" si="0">D13+D23+D33+D43</f>
+      <c r="E3" s="60">
+        <f t="shared" ref="E3:H3" si="0">E13+E23+E33+E43</f>
         <v>16</v>
       </c>
-      <c r="E3" s="60">
+      <c r="F3" s="60">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="F3" s="60">
+      <c r="G3" s="60">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="G3" s="59">
+      <c r="H3" s="59">
         <f t="shared" si="0"/>
         <v>420</v>
       </c>
-      <c r="H3" s="54">
-        <f>(C3+D3)/G3</f>
+      <c r="I3" s="54">
+        <f>(D3+E3)/H3</f>
         <v>0.10238095238095238</v>
       </c>
-      <c r="I3" s="54">
-        <f>C3/(C3+E3)</f>
+      <c r="J3" s="54">
+        <f>D3/(D3+F3)</f>
         <v>7.7809798270893377E-2</v>
       </c>
-      <c r="J3" s="54">
-        <f>C3/(C3+F3)</f>
+      <c r="K3" s="54">
+        <f>D3/(D3+G3)</f>
         <v>0.32142857142857145</v>
       </c>
-      <c r="K3" s="55">
-        <f>2*I3*J3/(I3+J3)</f>
+      <c r="L3" s="55">
+        <f>2*J3*K3/(J3+K3)</f>
         <v>0.12529002320185617</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
-        <v>3349</v>
-      </c>
-      <c r="B4" s="30" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="77" t="s">
+        <v>3382</v>
+      </c>
+      <c r="B4" s="80"/>
+      <c r="C4" s="83" t="s">
         <v>3355</v>
       </c>
-      <c r="C4" s="30">
-        <f t="shared" ref="C4:G9" si="1">C14+C24+C34+C44</f>
+      <c r="D4" s="30">
+        <f t="shared" ref="D4:H9" si="1">D14+D24+D34+D44</f>
         <v>47</v>
-      </c>
-      <c r="D4" s="21">
-        <f t="shared" si="1"/>
-        <v>17</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="1"/>
-        <v>301</v>
+        <v>17</v>
       </c>
       <c r="F4" s="21">
         <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="G4" s="33">
+      <c r="H4" s="33">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H4" s="54">
-        <f t="shared" ref="H4:H9" si="2">(C4+D4)/G4</f>
+      <c r="I4" s="54">
+        <f t="shared" ref="I4:I9" si="2">(D4+E4)/H4</f>
         <v>0.15238095238095239</v>
       </c>
-      <c r="I4" s="54">
-        <f t="shared" ref="I4:I9" si="3">C4/(C4+E4)</f>
+      <c r="J4" s="54">
+        <f t="shared" ref="J4:J9" si="3">D4/(D4+F4)</f>
         <v>0.13505747126436782</v>
       </c>
-      <c r="J4" s="54">
-        <f t="shared" ref="J4:J9" si="4">C4/(C4+F4)</f>
+      <c r="K4" s="54">
+        <f t="shared" ref="K4:K9" si="4">D4/(D4+G4)</f>
         <v>0.46078431372549017</v>
       </c>
-      <c r="K4" s="55">
-        <f t="shared" ref="K4:K9" si="5">2*I4*J4/(I4+J4)</f>
+      <c r="L4" s="55">
+        <f t="shared" ref="L4:L9" si="5">2*J4*K4/(J4+K4)</f>
         <v>0.2088888888888889</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="80"/>
+      <c r="C5" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="C5" s="30">
+      <c r="D5" s="30">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="D5" s="21">
+      <c r="E5" s="21">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="E5" s="21">
+      <c r="F5" s="21">
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="F5" s="21">
+      <c r="G5" s="21">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G5" s="33">
+      <c r="H5" s="33">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H5" s="54">
+      <c r="I5" s="54">
         <f t="shared" si="2"/>
         <v>0.32142857142857145</v>
       </c>
-      <c r="I5" s="54">
+      <c r="J5" s="54">
         <f t="shared" si="3"/>
         <v>0.22126436781609196</v>
       </c>
-      <c r="J5" s="54">
+      <c r="K5" s="54">
         <f t="shared" si="4"/>
         <v>0.84615384615384615</v>
       </c>
-      <c r="K5" s="55">
+      <c r="L5" s="55">
         <f t="shared" si="5"/>
         <v>0.35079726651480636</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="80"/>
+      <c r="C6" s="83" t="s">
         <v>3355</v>
       </c>
-      <c r="C6" s="30">
+      <c r="D6" s="30">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="D6" s="21">
+      <c r="E6" s="21">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="E6" s="21">
+      <c r="F6" s="21">
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="F6" s="21">
+      <c r="G6" s="21">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="G6" s="33">
+      <c r="H6" s="33">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H6" s="54">
+      <c r="I6" s="54">
         <f t="shared" si="2"/>
         <v>0.39285714285714285</v>
       </c>
-      <c r="I6" s="54">
+      <c r="J6" s="54">
         <f t="shared" si="3"/>
         <v>0.27696793002915454</v>
       </c>
-      <c r="J6" s="54">
+      <c r="K6" s="54">
         <f t="shared" si="4"/>
         <v>0.93137254901960786</v>
       </c>
-      <c r="K6" s="55">
+      <c r="L6" s="55">
         <f t="shared" si="5"/>
         <v>0.4269662921348315</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="77" t="s">
         <v>3351</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="C7" s="30">
+      <c r="D7" s="30">
         <f t="shared" si="1"/>
         <v>231</v>
       </c>
-      <c r="D7" s="21">
+      <c r="E7" s="21">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="E7" s="21">
+      <c r="F7" s="21">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="F7" s="21">
+      <c r="G7" s="21">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G7" s="33">
+      <c r="H7" s="33">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H7" s="54">
+      <c r="I7" s="54">
         <f t="shared" si="2"/>
         <v>0.84761904761904761</v>
       </c>
-      <c r="I7" s="54">
+      <c r="J7" s="54">
         <f t="shared" si="3"/>
         <v>0.82499999999999996</v>
       </c>
-      <c r="J7" s="54">
+      <c r="K7" s="54">
         <f t="shared" si="4"/>
         <v>0.93902439024390238</v>
       </c>
-      <c r="K7" s="55">
+      <c r="L7" s="55">
         <f t="shared" si="5"/>
         <v>0.87832699619771859</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
         <v>3352</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="83" t="s">
         <v>3356</v>
       </c>
-      <c r="C8" s="30">
+      <c r="D8" s="30">
         <f t="shared" si="1"/>
         <v>125</v>
       </c>
-      <c r="D8" s="21">
+      <c r="E8" s="21">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="E8" s="21">
+      <c r="F8" s="21">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="F8" s="21">
+      <c r="G8" s="21">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G8" s="33">
+      <c r="H8" s="33">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H8" s="54">
+      <c r="I8" s="54">
         <f t="shared" si="2"/>
         <v>0.58333333333333337</v>
       </c>
-      <c r="I8" s="54">
+      <c r="J8" s="54">
         <f t="shared" si="3"/>
         <v>0.44964028776978415</v>
       </c>
-      <c r="J8" s="54">
+      <c r="K8" s="54">
         <f t="shared" si="4"/>
         <v>0.85034013605442171</v>
       </c>
-      <c r="K8" s="55">
+      <c r="L8" s="55">
         <f t="shared" si="5"/>
         <v>0.58823529411764697</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="86" t="s">
         <v>3353</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="83" t="s">
         <v>3355</v>
       </c>
-      <c r="C9" s="31">
+      <c r="D9" s="31">
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="D9" s="32">
+      <c r="E9" s="32">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-      <c r="E9" s="32">
+      <c r="F9" s="32">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="F9" s="32">
+      <c r="G9" s="32">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G9" s="34">
+      <c r="H9" s="34">
         <f t="shared" si="1"/>
         <v>420</v>
       </c>
-      <c r="H9" s="56">
+      <c r="I9" s="56">
         <f t="shared" si="2"/>
         <v>0.86190476190476195</v>
       </c>
-      <c r="I9" s="56">
+      <c r="J9" s="56">
         <f t="shared" si="3"/>
         <v>0.83612040133779264</v>
       </c>
-      <c r="J9" s="56">
+      <c r="K9" s="56">
         <f t="shared" si="4"/>
         <v>0.96525096525096521</v>
       </c>
-      <c r="K9" s="57">
+      <c r="L9" s="57">
         <f t="shared" si="5"/>
         <v>0.89605734767025091</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="76"/>
       <c r="B10" s="76"/>
       <c r="C10" s="76"/>
@@ -36881,8 +36966,9 @@
       <c r="I10" s="76"/>
       <c r="J10" s="76"/>
       <c r="K10" s="76"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="67" t="s">
         <v>3371</v>
       </c>
@@ -36895,476 +36981,506 @@
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
-      <c r="N11" s="67" t="s">
+      <c r="K11" s="68"/>
+      <c r="L11" s="69"/>
+      <c r="O11" s="67" t="s">
         <v>3371</v>
       </c>
-      <c r="O11" s="68"/>
       <c r="P11" s="68"/>
       <c r="Q11" s="68"/>
       <c r="R11" s="68"/>
-      <c r="S11" s="69"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="69"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="82"/>
+      <c r="C12" s="45" t="s">
         <v>3383</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="D12" s="35" t="s">
         <v>3358</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="E12" s="36" t="s">
         <v>3359</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="F12" s="36" t="s">
         <v>3360</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="G12" s="37" t="s">
         <v>3361</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="H12" s="37" t="s">
         <v>3366</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="I12" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="J12" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="K12" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="K12" s="53" t="s">
+      <c r="L12" s="53" t="s">
         <v>3370</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="O12" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="O12" s="45" t="s">
+      <c r="P12" s="82"/>
+      <c r="Q12" s="45" t="s">
         <v>3383</v>
       </c>
-      <c r="P12" s="52" t="s">
+      <c r="R12" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="Q12" s="52" t="s">
+      <c r="S12" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="R12" s="52" t="s">
+      <c r="T12" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="S12" s="53" t="s">
+      <c r="U12" s="53" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="80"/>
+      <c r="C13" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C13" s="30">
+      <c r="D13" s="30">
         <v>9</v>
       </c>
-      <c r="D13" s="21">
+      <c r="E13" s="21">
         <v>0</v>
       </c>
-      <c r="E13" s="21">
+      <c r="F13" s="21">
         <v>116</v>
       </c>
-      <c r="F13" s="33">
+      <c r="G13" s="33">
         <v>25</v>
       </c>
-      <c r="G13" s="33">
-        <f>SUM(C13:F13)</f>
+      <c r="H13" s="33">
+        <f>SUM(D13:G13)</f>
         <v>150</v>
       </c>
-      <c r="H13" s="40">
-        <f>(C13+D13)/G13</f>
+      <c r="I13" s="40">
+        <f>(D13+E13)/H13</f>
         <v>0.06</v>
       </c>
-      <c r="I13" s="40">
-        <f>C13/(C13+E13)</f>
+      <c r="J13" s="40">
+        <f>D13/(D13+F13)</f>
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="J13" s="40">
-        <f>C13/(C13+F13)</f>
+      <c r="K13" s="40">
+        <f>D13/(D13+G13)</f>
         <v>0.26470588235294118</v>
       </c>
-      <c r="K13" s="41">
-        <f>2*I13*J13/(I13+J13)</f>
+      <c r="L13" s="41">
+        <f>2*J13*K13/(J13+K13)</f>
         <v>0.11320754716981131</v>
       </c>
-      <c r="N13" s="30" t="s">
+      <c r="O13" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="P13" s="80"/>
+      <c r="Q13" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P13" s="40">
+      <c r="R13" s="40">
         <v>0.06</v>
       </c>
-      <c r="Q13" s="40">
+      <c r="S13" s="40">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="R13" s="40">
+      <c r="T13" s="40">
         <v>0.26470588235294118</v>
       </c>
-      <c r="S13" s="41">
+      <c r="U13" s="41">
         <v>0.11320754716981131</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="80"/>
+      <c r="C14" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C14" s="30">
+      <c r="D14" s="30">
         <v>35</v>
       </c>
-      <c r="D14" s="21">
+      <c r="E14" s="21">
         <v>1</v>
       </c>
-      <c r="E14" s="21">
+      <c r="F14" s="21">
         <v>108</v>
       </c>
-      <c r="F14" s="33">
+      <c r="G14" s="33">
         <v>6</v>
       </c>
-      <c r="G14" s="33">
-        <f>SUM(C14:F14)</f>
+      <c r="H14" s="33">
+        <f>SUM(D14:G14)</f>
         <v>150</v>
       </c>
-      <c r="H14" s="40">
-        <f t="shared" ref="H14:H19" si="6">(C14+D14)/G14</f>
+      <c r="I14" s="40">
+        <f t="shared" ref="I14:I19" si="6">(D14+E14)/H14</f>
         <v>0.24</v>
       </c>
-      <c r="I14" s="40">
-        <f t="shared" ref="I14:I19" si="7">C14/(C14+E14)</f>
+      <c r="J14" s="40">
+        <f t="shared" ref="J14:J19" si="7">D14/(D14+F14)</f>
         <v>0.24475524475524477</v>
       </c>
-      <c r="J14" s="40">
-        <f t="shared" ref="J14:J19" si="8">C14/(C14+F14)</f>
+      <c r="K14" s="40">
+        <f t="shared" ref="K14:K19" si="8">D14/(D14+G14)</f>
         <v>0.85365853658536583</v>
       </c>
-      <c r="K14" s="41">
-        <f t="shared" ref="K14:K19" si="9">2*I14*J14/(I14+J14)</f>
+      <c r="L14" s="41">
+        <f t="shared" ref="L14:L19" si="9">2*J14*K14/(J14+K14)</f>
         <v>0.38043478260869573</v>
       </c>
-      <c r="N14" s="30" t="s">
+      <c r="O14" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O14" s="46" t="s">
+      <c r="P14" s="80"/>
+      <c r="Q14" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P14" s="40">
+      <c r="R14" s="40">
         <v>0.24</v>
       </c>
-      <c r="Q14" s="40">
+      <c r="S14" s="40">
         <v>0.24475524475524477</v>
       </c>
-      <c r="R14" s="40">
+      <c r="T14" s="40">
         <v>0.85365853658536583</v>
       </c>
-      <c r="S14" s="41">
+      <c r="U14" s="41">
         <v>0.38043478260869573</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="80"/>
+      <c r="C15" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C15" s="30">
+      <c r="D15" s="30">
         <v>39</v>
       </c>
-      <c r="D15" s="21">
+      <c r="E15" s="21">
         <v>13</v>
       </c>
-      <c r="E15" s="21">
+      <c r="F15" s="21">
         <v>92</v>
       </c>
-      <c r="F15" s="33">
+      <c r="G15" s="33">
         <v>6</v>
       </c>
-      <c r="G15" s="33">
-        <f t="shared" ref="G15:G19" si="10">SUM(C15:F15)</f>
+      <c r="H15" s="33">
+        <f t="shared" ref="H15:H19" si="10">SUM(D15:G15)</f>
         <v>150</v>
       </c>
-      <c r="H15" s="40">
+      <c r="I15" s="40">
         <f t="shared" si="6"/>
         <v>0.34666666666666668</v>
       </c>
-      <c r="I15" s="40">
+      <c r="J15" s="40">
         <f t="shared" si="7"/>
         <v>0.29770992366412213</v>
       </c>
-      <c r="J15" s="40">
+      <c r="K15" s="40">
         <f t="shared" si="8"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="K15" s="41">
+      <c r="L15" s="41">
         <f t="shared" si="9"/>
         <v>0.44318181818181823</v>
       </c>
-      <c r="N15" s="30" t="s">
+      <c r="O15" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O15" s="46" t="s">
+      <c r="P15" s="80"/>
+      <c r="Q15" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P15" s="40">
+      <c r="R15" s="40">
         <v>0.34666666666666668</v>
       </c>
-      <c r="Q15" s="40">
+      <c r="S15" s="40">
         <v>0.29770992366412213</v>
       </c>
-      <c r="R15" s="40">
+      <c r="T15" s="40">
         <v>0.8666666666666667</v>
       </c>
-      <c r="S15" s="41">
+      <c r="U15" s="41">
         <v>0.44318181818181823</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C16" s="30">
+      <c r="D16" s="30">
         <v>74</v>
       </c>
-      <c r="D16" s="21">
+      <c r="E16" s="21">
         <v>16</v>
       </c>
-      <c r="E16" s="21">
+      <c r="F16" s="21">
         <v>56</v>
       </c>
-      <c r="F16" s="33">
+      <c r="G16" s="33">
         <v>4</v>
       </c>
-      <c r="G16" s="33">
+      <c r="H16" s="33">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="H16" s="40">
+      <c r="I16" s="40">
         <f t="shared" si="6"/>
         <v>0.6</v>
       </c>
-      <c r="I16" s="40">
+      <c r="J16" s="40">
         <f t="shared" si="7"/>
         <v>0.56923076923076921</v>
       </c>
-      <c r="J16" s="40">
+      <c r="K16" s="40">
         <f t="shared" si="8"/>
         <v>0.94871794871794868</v>
       </c>
-      <c r="K16" s="41">
+      <c r="L16" s="41">
         <f t="shared" si="9"/>
         <v>0.71153846153846156</v>
       </c>
-      <c r="N16" s="30" t="s">
+      <c r="O16" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O16" s="46" t="s">
+      <c r="P16" s="80"/>
+      <c r="Q16" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P16" s="40">
+      <c r="R16" s="40">
         <v>0.6</v>
       </c>
-      <c r="Q16" s="40">
+      <c r="S16" s="40">
         <v>0.56923076923076921</v>
       </c>
-      <c r="R16" s="40">
+      <c r="T16" s="40">
         <v>0.94871794871794868</v>
       </c>
-      <c r="S16" s="41">
+      <c r="U16" s="41">
         <v>0.71153846153846156</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C17" s="30">
+      <c r="D17" s="30">
         <v>93</v>
       </c>
-      <c r="D17" s="21">
+      <c r="E17" s="21">
         <v>23</v>
       </c>
-      <c r="E17" s="21">
+      <c r="F17" s="21">
         <v>34</v>
       </c>
-      <c r="F17" s="33">
+      <c r="G17" s="33">
         <v>0</v>
       </c>
-      <c r="G17" s="33">
+      <c r="H17" s="33">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="H17" s="40">
+      <c r="I17" s="40">
         <f t="shared" si="6"/>
         <v>0.77333333333333332</v>
       </c>
-      <c r="I17" s="40">
+      <c r="J17" s="40">
         <f t="shared" si="7"/>
         <v>0.73228346456692917</v>
       </c>
-      <c r="J17" s="42">
+      <c r="K17" s="42">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K17" s="41">
+      <c r="L17" s="41">
         <f t="shared" si="9"/>
         <v>0.84545454545454546</v>
       </c>
-      <c r="N17" s="30" t="s">
+      <c r="O17" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="O17" s="46" t="s">
+      <c r="P17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P17" s="40">
+      <c r="R17" s="40">
         <v>0.77333333333333332</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="S17" s="40">
         <v>0.73228346456692917</v>
       </c>
-      <c r="R17" s="42">
+      <c r="T17" s="42">
         <v>1</v>
       </c>
-      <c r="S17" s="41">
+      <c r="U17" s="41">
         <v>0.84545454545454546</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>3356</v>
       </c>
-      <c r="C18" s="30">
+      <c r="D18" s="30">
         <v>7</v>
       </c>
-      <c r="D18" s="21">
+      <c r="E18" s="21">
         <v>19</v>
       </c>
-      <c r="E18" s="21">
+      <c r="F18" s="21">
         <v>117</v>
       </c>
-      <c r="F18" s="33">
+      <c r="G18" s="33">
         <v>7</v>
       </c>
-      <c r="G18" s="33">
+      <c r="H18" s="33">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="H18" s="40">
+      <c r="I18" s="40">
         <f t="shared" si="6"/>
         <v>0.17333333333333334</v>
       </c>
-      <c r="I18" s="40">
+      <c r="J18" s="40">
         <f t="shared" si="7"/>
         <v>5.6451612903225805E-2</v>
       </c>
-      <c r="J18" s="40">
+      <c r="K18" s="40">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="K18" s="41">
+      <c r="L18" s="41">
         <f t="shared" si="9"/>
         <v>0.10144927536231885</v>
       </c>
-      <c r="N18" s="30" t="s">
+      <c r="O18" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="O18" s="46" t="s">
+      <c r="P18" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q18" s="30" t="s">
         <v>3356</v>
       </c>
-      <c r="P18" s="40">
+      <c r="R18" s="40">
         <v>0.17333333333333334</v>
       </c>
-      <c r="Q18" s="40">
+      <c r="S18" s="40">
         <v>5.6451612903225805E-2</v>
       </c>
-      <c r="R18" s="40">
+      <c r="T18" s="40">
         <v>0.5</v>
       </c>
-      <c r="S18" s="41">
+      <c r="U18" s="41">
         <v>0.10144927536231885</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C19" s="31">
+      <c r="D19" s="31">
         <v>116</v>
       </c>
-      <c r="D19" s="32">
+      <c r="E19" s="32">
         <v>18</v>
       </c>
-      <c r="E19" s="32">
+      <c r="F19" s="32">
         <v>16</v>
       </c>
-      <c r="F19" s="34">
+      <c r="G19" s="34">
         <v>0</v>
       </c>
-      <c r="G19" s="34">
+      <c r="H19" s="34">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="H19" s="43">
+      <c r="I19" s="43">
         <f t="shared" si="6"/>
         <v>0.89333333333333331</v>
       </c>
-      <c r="I19" s="43">
+      <c r="J19" s="43">
         <f t="shared" si="7"/>
         <v>0.87878787878787878</v>
       </c>
-      <c r="J19" s="43">
+      <c r="K19" s="43">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="K19" s="44">
+      <c r="L19" s="44">
         <f t="shared" si="9"/>
         <v>0.93548387096774188</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="O19" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="O19" s="47" t="s">
+      <c r="P19" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="31" t="s">
         <v>3355</v>
       </c>
-      <c r="P19" s="43">
+      <c r="R19" s="43">
         <v>0.89333333333333331</v>
       </c>
-      <c r="Q19" s="43">
+      <c r="S19" s="43">
         <v>0.87878787878787878</v>
       </c>
-      <c r="R19" s="43">
+      <c r="T19" s="43">
         <v>1</v>
       </c>
-      <c r="S19" s="44">
+      <c r="U19" s="44">
         <v>0.93548387096774188</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="76"/>
       <c r="B20" s="76"/>
       <c r="C20" s="76"/>
@@ -37376,8 +37492,9 @@
       <c r="I20" s="76"/>
       <c r="J20" s="76"/>
       <c r="K20" s="76"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="L20" s="76"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="70" t="s">
         <v>3372</v>
       </c>
@@ -37390,476 +37507,506 @@
       <c r="H21" s="71"/>
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="N21" s="70" t="s">
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="O21" s="70" t="s">
         <v>3372</v>
       </c>
-      <c r="O21" s="71"/>
       <c r="P21" s="71"/>
       <c r="Q21" s="71"/>
       <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="72"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="82"/>
+      <c r="C22" s="45" t="s">
         <v>3383</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="D22" s="35" t="s">
         <v>3358</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="E22" s="36" t="s">
         <v>3359</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="F22" s="36" t="s">
         <v>3360</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="G22" s="37" t="s">
         <v>3361</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="H22" s="37" t="s">
         <v>3366</v>
       </c>
-      <c r="H22" s="52" t="s">
+      <c r="I22" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="I22" s="52" t="s">
+      <c r="J22" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="J22" s="52" t="s">
+      <c r="K22" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="K22" s="53" t="s">
+      <c r="L22" s="53" t="s">
         <v>3370</v>
       </c>
-      <c r="N22" s="35" t="s">
+      <c r="O22" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="O22" s="45" t="s">
+      <c r="P22" s="82"/>
+      <c r="Q22" s="45" t="s">
         <v>3383</v>
       </c>
-      <c r="P22" s="52" t="s">
+      <c r="R22" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="Q22" s="52" t="s">
+      <c r="S22" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="R22" s="52" t="s">
+      <c r="T22" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="S22" s="53" t="s">
+      <c r="U22" s="53" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="80"/>
+      <c r="C23" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C23" s="30">
+      <c r="D23" s="30">
         <v>15</v>
       </c>
-      <c r="D23" s="21">
+      <c r="E23" s="21">
         <v>0</v>
       </c>
-      <c r="E23" s="21">
+      <c r="F23" s="21">
         <v>83</v>
       </c>
-      <c r="F23" s="33">
+      <c r="G23" s="33">
         <v>22</v>
       </c>
-      <c r="G23" s="33">
-        <f>SUM(C23:F23)</f>
+      <c r="H23" s="33">
+        <f>SUM(D23:G23)</f>
         <v>120</v>
       </c>
-      <c r="H23" s="40">
-        <f>(C23+D23)/G23</f>
+      <c r="I23" s="40">
+        <f>(D23+E23)/H23</f>
         <v>0.125</v>
       </c>
-      <c r="I23" s="40">
-        <f>C23/(C23+E23)</f>
+      <c r="J23" s="40">
+        <f>D23/(D23+F23)</f>
         <v>0.15306122448979592</v>
       </c>
-      <c r="J23" s="40">
-        <f>C23/(C23+F23)</f>
+      <c r="K23" s="40">
+        <f>D23/(D23+G23)</f>
         <v>0.40540540540540543</v>
       </c>
-      <c r="K23" s="41">
-        <f>2*I23*J23/(I23+J23)</f>
+      <c r="L23" s="41">
+        <f>2*J23*K23/(J23+K23)</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="N23" s="30" t="s">
+      <c r="O23" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O23" s="46" t="s">
+      <c r="P23" s="80"/>
+      <c r="Q23" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P23" s="40">
+      <c r="R23" s="40">
         <v>0.125</v>
       </c>
-      <c r="Q23" s="40">
+      <c r="S23" s="40">
         <v>0.15306122448979592</v>
       </c>
-      <c r="R23" s="40">
+      <c r="T23" s="40">
         <v>0.40540540540540543</v>
       </c>
-      <c r="S23" s="41">
+      <c r="U23" s="41">
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C24" s="30">
+      <c r="D24" s="30">
         <v>2</v>
       </c>
-      <c r="D24" s="21">
+      <c r="E24" s="21">
         <v>1</v>
       </c>
-      <c r="E24" s="21">
+      <c r="F24" s="21">
         <v>91</v>
       </c>
-      <c r="F24" s="33">
+      <c r="G24" s="33">
         <v>26</v>
       </c>
-      <c r="G24" s="33">
-        <f>SUM(C24:F24)</f>
+      <c r="H24" s="33">
+        <f>SUM(D24:G24)</f>
         <v>120</v>
       </c>
-      <c r="H24" s="40">
-        <f t="shared" ref="H24:H29" si="11">(C24+D24)/G24</f>
+      <c r="I24" s="40">
+        <f t="shared" ref="I24:I29" si="11">(D24+E24)/H24</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="I24" s="40">
-        <f t="shared" ref="I24:I29" si="12">C24/(C24+E24)</f>
+      <c r="J24" s="40">
+        <f t="shared" ref="J24:J29" si="12">D24/(D24+F24)</f>
         <v>2.1505376344086023E-2</v>
       </c>
-      <c r="J24" s="40">
-        <f t="shared" ref="J24:J29" si="13">C24/(C24+F24)</f>
+      <c r="K24" s="40">
+        <f t="shared" ref="K24:K29" si="13">D24/(D24+G24)</f>
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="K24" s="41">
-        <f t="shared" ref="K24:K29" si="14">2*I24*J24/(I24+J24)</f>
+      <c r="L24" s="41">
+        <f t="shared" ref="L24:L29" si="14">2*J24*K24/(J24+K24)</f>
         <v>3.3057851239669422E-2</v>
       </c>
-      <c r="N24" s="30" t="s">
+      <c r="O24" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O24" s="46" t="s">
+      <c r="P24" s="80"/>
+      <c r="Q24" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P24" s="40">
+      <c r="R24" s="40">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="Q24" s="40">
+      <c r="S24" s="40">
         <v>2.1505376344086023E-2</v>
       </c>
-      <c r="R24" s="40">
+      <c r="T24" s="40">
         <v>7.1428571428571425E-2</v>
       </c>
-      <c r="S24" s="41">
+      <c r="U24" s="41">
         <v>3.3057851239669422E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C25" s="30">
+      <c r="D25" s="30">
         <v>22</v>
       </c>
-      <c r="D25" s="21">
+      <c r="E25" s="21">
         <v>5</v>
       </c>
-      <c r="E25" s="21">
+      <c r="F25" s="21">
         <v>88</v>
       </c>
-      <c r="F25" s="33">
+      <c r="G25" s="33">
         <v>5</v>
       </c>
-      <c r="G25" s="33">
-        <f t="shared" ref="G25:G29" si="15">SUM(C25:F25)</f>
+      <c r="H25" s="33">
+        <f t="shared" ref="H25:H29" si="15">SUM(D25:G25)</f>
         <v>120</v>
       </c>
-      <c r="H25" s="40">
+      <c r="I25" s="40">
         <f t="shared" si="11"/>
         <v>0.22500000000000001</v>
       </c>
-      <c r="I25" s="40">
+      <c r="J25" s="40">
         <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
-      <c r="J25" s="40">
+      <c r="K25" s="40">
         <f t="shared" si="13"/>
         <v>0.81481481481481477</v>
       </c>
-      <c r="K25" s="41">
+      <c r="L25" s="41">
         <f t="shared" si="14"/>
         <v>0.32116788321167883</v>
       </c>
-      <c r="N25" s="30" t="s">
+      <c r="O25" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O25" s="46" t="s">
+      <c r="P25" s="80"/>
+      <c r="Q25" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P25" s="40">
+      <c r="R25" s="40">
         <v>0.22500000000000001</v>
       </c>
-      <c r="Q25" s="40">
+      <c r="S25" s="40">
         <v>0.2</v>
       </c>
-      <c r="R25" s="40">
+      <c r="T25" s="40">
         <v>0.81481481481481477</v>
       </c>
-      <c r="S25" s="41">
+      <c r="U25" s="41">
         <v>0.32116788321167883</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C26" s="30">
+      <c r="D26" s="30">
         <v>6</v>
       </c>
-      <c r="D26" s="21">
+      <c r="E26" s="21">
         <v>3</v>
       </c>
-      <c r="E26" s="21">
+      <c r="F26" s="21">
         <v>111</v>
       </c>
-      <c r="F26" s="33">
+      <c r="G26" s="33">
         <v>0</v>
       </c>
-      <c r="G26" s="33">
+      <c r="H26" s="33">
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
-      <c r="H26" s="40">
+      <c r="I26" s="40">
         <f t="shared" si="11"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I26" s="40">
+      <c r="J26" s="40">
         <f t="shared" si="12"/>
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="J26" s="42">
+      <c r="K26" s="42">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="K26" s="41">
+      <c r="L26" s="41">
         <f t="shared" si="14"/>
         <v>9.7560975609756087E-2</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="O26" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O26" s="46" t="s">
+      <c r="P26" s="80"/>
+      <c r="Q26" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P26" s="40">
+      <c r="R26" s="40">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="Q26" s="40">
+      <c r="S26" s="40">
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="R26" s="42">
+      <c r="T26" s="42">
         <v>1</v>
       </c>
-      <c r="S26" s="41">
+      <c r="U26" s="41">
         <v>9.7560975609756087E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C27" s="30">
+      <c r="D27" s="30">
         <v>105</v>
       </c>
-      <c r="D27" s="21">
+      <c r="E27" s="21">
         <v>10</v>
       </c>
-      <c r="E27" s="21">
+      <c r="F27" s="21">
         <v>3</v>
       </c>
-      <c r="F27" s="33">
+      <c r="G27" s="33">
         <v>2</v>
       </c>
-      <c r="G27" s="33">
+      <c r="H27" s="33">
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
-      <c r="H27" s="42">
+      <c r="I27" s="42">
         <f t="shared" si="11"/>
         <v>0.95833333333333337</v>
       </c>
-      <c r="I27" s="42">
+      <c r="J27" s="42">
         <f t="shared" si="12"/>
         <v>0.97222222222222221</v>
       </c>
-      <c r="J27" s="40">
+      <c r="K27" s="40">
         <f t="shared" si="13"/>
         <v>0.98130841121495327</v>
       </c>
-      <c r="K27" s="51">
+      <c r="L27" s="51">
         <f t="shared" si="14"/>
         <v>0.9767441860465117</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="O27" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="O27" s="46" t="s">
+      <c r="P27" s="33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q27" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P27" s="42">
+      <c r="R27" s="42">
         <v>0.95833333333333337</v>
       </c>
-      <c r="Q27" s="42">
+      <c r="S27" s="42">
         <v>0.97222222222222221</v>
       </c>
-      <c r="R27" s="40">
+      <c r="T27" s="40">
         <v>0.98130841121495327</v>
       </c>
-      <c r="S27" s="51">
+      <c r="U27" s="51">
         <v>0.9767441860465117</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>3356</v>
       </c>
-      <c r="C28" s="30">
+      <c r="D28" s="30">
         <v>94</v>
-      </c>
-      <c r="D28" s="21">
-        <v>12</v>
       </c>
       <c r="E28" s="21">
         <v>12</v>
       </c>
-      <c r="F28" s="33">
+      <c r="F28" s="21">
+        <v>12</v>
+      </c>
+      <c r="G28" s="33">
         <v>2</v>
       </c>
-      <c r="G28" s="33">
+      <c r="H28" s="33">
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
-      <c r="H28" s="40">
+      <c r="I28" s="40">
         <f t="shared" si="11"/>
         <v>0.8833333333333333</v>
       </c>
-      <c r="I28" s="40">
+      <c r="J28" s="40">
         <f t="shared" si="12"/>
         <v>0.8867924528301887</v>
       </c>
-      <c r="J28" s="40">
+      <c r="K28" s="40">
         <f t="shared" si="13"/>
         <v>0.97916666666666663</v>
       </c>
-      <c r="K28" s="41">
+      <c r="L28" s="41">
         <f t="shared" si="14"/>
         <v>0.93069306930693074</v>
       </c>
-      <c r="N28" s="30" t="s">
+      <c r="O28" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="O28" s="46" t="s">
+      <c r="P28" s="33" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q28" s="30" t="s">
         <v>3356</v>
       </c>
-      <c r="P28" s="40">
+      <c r="R28" s="40">
         <v>0.8833333333333333</v>
       </c>
-      <c r="Q28" s="40">
+      <c r="S28" s="40">
         <v>0.8867924528301887</v>
       </c>
-      <c r="R28" s="40">
+      <c r="T28" s="40">
         <v>0.97916666666666663</v>
       </c>
-      <c r="S28" s="41">
+      <c r="U28" s="41">
         <v>0.93069306930693074</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="34" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C29" s="31">
+      <c r="D29" s="31">
         <v>101</v>
       </c>
-      <c r="D29" s="32">
+      <c r="E29" s="32">
         <v>6</v>
       </c>
-      <c r="E29" s="32">
+      <c r="F29" s="32">
         <v>11</v>
       </c>
-      <c r="F29" s="34">
+      <c r="G29" s="34">
         <v>2</v>
       </c>
-      <c r="G29" s="34">
+      <c r="H29" s="34">
         <f t="shared" si="15"/>
         <v>120</v>
       </c>
-      <c r="H29" s="49">
+      <c r="I29" s="49">
         <f t="shared" si="11"/>
         <v>0.89166666666666672</v>
       </c>
-      <c r="I29" s="49">
+      <c r="J29" s="49">
         <f t="shared" si="12"/>
         <v>0.9017857142857143</v>
       </c>
-      <c r="J29" s="49">
+      <c r="K29" s="49">
         <f t="shared" si="13"/>
         <v>0.98058252427184467</v>
       </c>
-      <c r="K29" s="50">
+      <c r="L29" s="50">
         <f t="shared" si="14"/>
         <v>0.93953488372093008</v>
       </c>
-      <c r="N29" s="31" t="s">
+      <c r="O29" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="O29" s="47" t="s">
+      <c r="P29" s="34" t="s">
+        <v>1570</v>
+      </c>
+      <c r="Q29" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P29" s="49">
+      <c r="R29" s="49">
         <v>0.89166666666666672</v>
       </c>
-      <c r="Q29" s="49">
+      <c r="S29" s="49">
         <v>0.9017857142857143</v>
       </c>
-      <c r="R29" s="49">
+      <c r="T29" s="49">
         <v>0.98058252427184467</v>
       </c>
-      <c r="S29" s="50">
+      <c r="U29" s="50">
         <v>0.93953488372093008</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="76"/>
       <c r="B30" s="76"/>
       <c r="C30" s="76"/>
@@ -37871,14 +38018,16 @@
       <c r="I30" s="76"/>
       <c r="J30" s="76"/>
       <c r="K30" s="76"/>
-      <c r="N30" s="76"/>
+      <c r="L30" s="76"/>
       <c r="O30" s="76"/>
       <c r="P30" s="76"/>
       <c r="Q30" s="76"/>
       <c r="R30" s="76"/>
       <c r="S30" s="76"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="76"/>
+      <c r="U30" s="76"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="73" t="s">
         <v>3374</v>
       </c>
@@ -37891,476 +38040,506 @@
       <c r="H31" s="74"/>
       <c r="I31" s="74"/>
       <c r="J31" s="74"/>
-      <c r="K31" s="75"/>
-      <c r="N31" s="73" t="s">
+      <c r="K31" s="74"/>
+      <c r="L31" s="75"/>
+      <c r="O31" s="73" t="s">
         <v>3374</v>
       </c>
-      <c r="O31" s="74"/>
       <c r="P31" s="74"/>
       <c r="Q31" s="74"/>
       <c r="R31" s="74"/>
-      <c r="S31" s="75"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="75"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="82"/>
+      <c r="C32" s="45" t="s">
         <v>3383</v>
       </c>
-      <c r="C32" s="35" t="s">
+      <c r="D32" s="35" t="s">
         <v>3358</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="E32" s="36" t="s">
         <v>3359</v>
       </c>
-      <c r="E32" s="36" t="s">
+      <c r="F32" s="36" t="s">
         <v>3360</v>
       </c>
-      <c r="F32" s="37" t="s">
+      <c r="G32" s="37" t="s">
         <v>3361</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="H32" s="37" t="s">
         <v>3366</v>
       </c>
-      <c r="H32" s="52" t="s">
+      <c r="I32" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="I32" s="52" t="s">
+      <c r="J32" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="J32" s="52" t="s">
+      <c r="K32" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="L32" s="53" t="s">
         <v>3370</v>
       </c>
-      <c r="N32" s="35" t="s">
+      <c r="O32" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="O32" s="45" t="s">
+      <c r="P32" s="82"/>
+      <c r="Q32" s="45" t="s">
         <v>3383</v>
       </c>
-      <c r="P32" s="52" t="s">
+      <c r="R32" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="Q32" s="52" t="s">
+      <c r="S32" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="R32" s="52" t="s">
+      <c r="T32" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="S32" s="53" t="s">
+      <c r="U32" s="53" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="80"/>
+      <c r="C33" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C33" s="30">
+      <c r="D33" s="30">
         <v>1</v>
       </c>
-      <c r="D33" s="21">
+      <c r="E33" s="21">
         <v>7</v>
       </c>
-      <c r="E33" s="21">
+      <c r="F33" s="21">
         <v>82</v>
       </c>
-      <c r="F33" s="33">
+      <c r="G33" s="33">
         <v>0</v>
       </c>
-      <c r="G33" s="33">
-        <f>SUM(C33:F33)</f>
+      <c r="H33" s="33">
+        <f>SUM(D33:G33)</f>
         <v>90</v>
       </c>
-      <c r="H33" s="40">
-        <f>(C33+D33)/G33</f>
+      <c r="I33" s="40">
+        <f>(D33+E33)/H33</f>
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="I33" s="40">
-        <f>C33/(C33+E33)</f>
+      <c r="J33" s="40">
+        <f>D33/(D33+F33)</f>
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="J33" s="42">
-        <f>C33/(C33+F33)</f>
+      <c r="K33" s="42">
+        <f>D33/(D33+G33)</f>
         <v>1</v>
       </c>
-      <c r="K33" s="41">
-        <f>2*I33*J33/(I33+J33)</f>
+      <c r="L33" s="41">
+        <f>2*J33*K33/(J33+K33)</f>
         <v>2.3809523809523812E-2</v>
       </c>
-      <c r="N33" s="30" t="s">
+      <c r="O33" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O33" s="46" t="s">
+      <c r="P33" s="80"/>
+      <c r="Q33" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P33" s="40">
+      <c r="R33" s="40">
         <v>8.8888888888888892E-2</v>
       </c>
-      <c r="Q33" s="40">
+      <c r="S33" s="40">
         <v>1.2048192771084338E-2</v>
       </c>
-      <c r="R33" s="42">
+      <c r="T33" s="42">
         <v>1</v>
       </c>
-      <c r="S33" s="41">
+      <c r="U33" s="41">
         <v>2.3809523809523812E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="80"/>
+      <c r="C34" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C34" s="30">
+      <c r="D34" s="30">
         <v>2</v>
       </c>
-      <c r="D34" s="21">
+      <c r="E34" s="21">
         <v>7</v>
       </c>
-      <c r="E34" s="21">
+      <c r="F34" s="21">
         <v>68</v>
       </c>
-      <c r="F34" s="33">
+      <c r="G34" s="33">
         <v>13</v>
       </c>
-      <c r="G34" s="33">
-        <f>SUM(C34:F34)</f>
+      <c r="H34" s="33">
+        <f>SUM(D34:G34)</f>
         <v>90</v>
       </c>
-      <c r="H34" s="40">
-        <f t="shared" ref="H34:H39" si="16">(C34+D34)/G34</f>
+      <c r="I34" s="40">
+        <f t="shared" ref="I34:I39" si="16">(D34+E34)/H34</f>
         <v>0.1</v>
       </c>
-      <c r="I34" s="40">
-        <f t="shared" ref="I34:I39" si="17">C34/(C34+E34)</f>
+      <c r="J34" s="40">
+        <f t="shared" ref="J34:J39" si="17">D34/(D34+F34)</f>
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="J34" s="40">
-        <f t="shared" ref="J34:J39" si="18">C34/(C34+F34)</f>
+      <c r="K34" s="40">
+        <f t="shared" ref="K34:K39" si="18">D34/(D34+G34)</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="K34" s="41">
-        <f t="shared" ref="K34:K39" si="19">2*I34*J34/(I34+J34)</f>
+      <c r="L34" s="41">
+        <f t="shared" ref="L34:L39" si="19">2*J34*K34/(J34+K34)</f>
         <v>4.7058823529411764E-2</v>
       </c>
-      <c r="N34" s="30" t="s">
+      <c r="O34" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O34" s="46" t="s">
+      <c r="P34" s="80"/>
+      <c r="Q34" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P34" s="40">
+      <c r="R34" s="40">
         <v>0.1</v>
       </c>
-      <c r="Q34" s="40">
+      <c r="S34" s="40">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="R34" s="40">
+      <c r="T34" s="40">
         <v>0.13333333333333333</v>
       </c>
-      <c r="S34" s="41">
+      <c r="U34" s="41">
         <v>4.7058823529411764E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="80"/>
+      <c r="C35" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C35" s="30">
+      <c r="D35" s="30">
         <v>9</v>
       </c>
-      <c r="D35" s="21">
+      <c r="E35" s="21">
         <v>14</v>
       </c>
-      <c r="E35" s="21">
+      <c r="F35" s="21">
         <v>67</v>
       </c>
-      <c r="F35" s="33">
+      <c r="G35" s="33">
         <v>0</v>
       </c>
-      <c r="G35" s="33">
-        <f t="shared" ref="G35:G39" si="20">SUM(C35:F35)</f>
+      <c r="H35" s="33">
+        <f t="shared" ref="H35:H39" si="20">SUM(D35:G35)</f>
         <v>90</v>
       </c>
-      <c r="H35" s="40">
+      <c r="I35" s="40">
         <f t="shared" si="16"/>
         <v>0.25555555555555554</v>
       </c>
-      <c r="I35" s="40">
+      <c r="J35" s="40">
         <f t="shared" si="17"/>
         <v>0.11842105263157894</v>
       </c>
-      <c r="J35" s="42">
+      <c r="K35" s="42">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K35" s="41">
+      <c r="L35" s="41">
         <f t="shared" si="19"/>
         <v>0.21176470588235291</v>
       </c>
-      <c r="N35" s="30" t="s">
+      <c r="O35" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O35" s="46" t="s">
+      <c r="P35" s="80"/>
+      <c r="Q35" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P35" s="40">
+      <c r="R35" s="40">
         <v>0.25555555555555554</v>
       </c>
-      <c r="Q35" s="40">
+      <c r="S35" s="40">
         <v>0.11842105263157894</v>
       </c>
-      <c r="R35" s="42">
+      <c r="T35" s="42">
         <v>1</v>
       </c>
-      <c r="S35" s="41">
+      <c r="U35" s="41">
         <v>0.21176470588235291</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="30" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="80"/>
+      <c r="C36" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C36" s="30">
+      <c r="D36" s="30">
         <v>2</v>
       </c>
-      <c r="D36" s="21">
+      <c r="E36" s="21">
         <v>30</v>
       </c>
-      <c r="E36" s="21">
+      <c r="F36" s="21">
         <v>57</v>
       </c>
-      <c r="F36" s="33">
+      <c r="G36" s="33">
         <v>1</v>
       </c>
-      <c r="G36" s="33">
+      <c r="H36" s="33">
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
-      <c r="H36" s="40">
+      <c r="I36" s="40">
         <f t="shared" si="16"/>
         <v>0.35555555555555557</v>
       </c>
-      <c r="I36" s="40">
+      <c r="J36" s="40">
         <f t="shared" si="17"/>
         <v>3.3898305084745763E-2</v>
       </c>
-      <c r="J36" s="40">
+      <c r="K36" s="40">
         <f t="shared" si="18"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K36" s="41">
+      <c r="L36" s="41">
         <f t="shared" si="19"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="N36" s="30" t="s">
+      <c r="O36" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O36" s="46" t="s">
+      <c r="P36" s="80"/>
+      <c r="Q36" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P36" s="40">
+      <c r="R36" s="40">
         <v>0.35555555555555557</v>
       </c>
-      <c r="Q36" s="40">
+      <c r="S36" s="40">
         <v>3.3898305084745763E-2</v>
       </c>
-      <c r="R36" s="40">
+      <c r="T36" s="40">
         <v>0.66666666666666663</v>
       </c>
-      <c r="S36" s="41">
+      <c r="U36" s="41">
         <v>6.4516129032258063E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="33" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C37" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="C37" s="30">
+      <c r="D37" s="30">
         <v>19</v>
       </c>
-      <c r="D37" s="21">
+      <c r="E37" s="21">
         <v>60</v>
       </c>
-      <c r="E37" s="21">
+      <c r="F37" s="21">
         <v>5</v>
       </c>
-      <c r="F37" s="33">
+      <c r="G37" s="33">
         <v>6</v>
       </c>
-      <c r="G37" s="33">
+      <c r="H37" s="33">
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
-      <c r="H37" s="42">
+      <c r="I37" s="42">
         <f t="shared" si="16"/>
         <v>0.87777777777777777</v>
       </c>
-      <c r="I37" s="42">
+      <c r="J37" s="42">
         <f t="shared" si="17"/>
         <v>0.79166666666666663</v>
       </c>
-      <c r="J37" s="40">
+      <c r="K37" s="40">
         <f t="shared" si="18"/>
         <v>0.76</v>
       </c>
-      <c r="K37" s="51">
+      <c r="L37" s="51">
         <f t="shared" si="19"/>
         <v>0.77551020408163263</v>
       </c>
-      <c r="N37" s="30" t="s">
+      <c r="O37" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="O37" s="46" t="s">
+      <c r="P37" s="33" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Q37" s="30" t="s">
         <v>3354</v>
       </c>
-      <c r="P37" s="42">
+      <c r="R37" s="42">
         <v>0.87777777777777777</v>
       </c>
-      <c r="Q37" s="42">
+      <c r="S37" s="42">
         <v>0.79166666666666663</v>
       </c>
-      <c r="R37" s="40">
+      <c r="T37" s="40">
         <v>0.76</v>
       </c>
-      <c r="S37" s="51">
+      <c r="U37" s="51">
         <v>0.77551020408163263</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="33" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>3356</v>
       </c>
-      <c r="C38" s="30">
+      <c r="D38" s="30">
         <v>16</v>
       </c>
-      <c r="D38" s="21">
+      <c r="E38" s="21">
         <v>60</v>
       </c>
-      <c r="E38" s="21">
+      <c r="F38" s="21">
         <v>9</v>
       </c>
-      <c r="F38" s="33">
+      <c r="G38" s="33">
         <v>5</v>
       </c>
-      <c r="G38" s="33">
+      <c r="H38" s="33">
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
-      <c r="H38" s="40">
+      <c r="I38" s="40">
         <f t="shared" si="16"/>
         <v>0.84444444444444444</v>
       </c>
-      <c r="I38" s="40">
+      <c r="J38" s="40">
         <f t="shared" si="17"/>
         <v>0.64</v>
       </c>
-      <c r="J38" s="40">
+      <c r="K38" s="40">
         <f t="shared" si="18"/>
         <v>0.76190476190476186</v>
       </c>
-      <c r="K38" s="41">
+      <c r="L38" s="41">
         <f t="shared" si="19"/>
         <v>0.69565217391304346</v>
       </c>
-      <c r="N38" s="30" t="s">
+      <c r="O38" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="O38" s="46" t="s">
+      <c r="P38" s="33" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Q38" s="30" t="s">
         <v>3356</v>
       </c>
-      <c r="P38" s="40">
+      <c r="R38" s="40">
         <v>0.84444444444444444</v>
       </c>
-      <c r="Q38" s="40">
+      <c r="S38" s="40">
         <v>0.64</v>
       </c>
-      <c r="R38" s="40">
+      <c r="T38" s="40">
         <v>0.76190476190476186</v>
       </c>
-      <c r="S38" s="41">
+      <c r="U38" s="41">
         <v>0.69565217391304346</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="34" t="s">
+        <v>2492</v>
+      </c>
+      <c r="C39" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="C39" s="31">
+      <c r="D39" s="31">
         <v>13</v>
       </c>
-      <c r="D39" s="32">
+      <c r="E39" s="32">
         <v>58</v>
       </c>
-      <c r="E39" s="32">
+      <c r="F39" s="32">
         <v>16</v>
       </c>
-      <c r="F39" s="34">
+      <c r="G39" s="34">
         <v>3</v>
       </c>
-      <c r="G39" s="34">
+      <c r="H39" s="34">
         <f t="shared" si="20"/>
         <v>90</v>
       </c>
-      <c r="H39" s="49">
+      <c r="I39" s="49">
         <f t="shared" si="16"/>
         <v>0.78888888888888886</v>
       </c>
-      <c r="I39" s="49">
+      <c r="J39" s="49">
         <f t="shared" si="17"/>
         <v>0.44827586206896552</v>
       </c>
-      <c r="J39" s="49">
+      <c r="K39" s="49">
         <f t="shared" si="18"/>
         <v>0.8125</v>
       </c>
-      <c r="K39" s="50">
+      <c r="L39" s="50">
         <f t="shared" si="19"/>
         <v>0.57777777777777772</v>
       </c>
-      <c r="N39" s="31" t="s">
+      <c r="O39" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="O39" s="47" t="s">
+      <c r="P39" s="34" t="s">
+        <v>2492</v>
+      </c>
+      <c r="Q39" s="30" t="s">
         <v>3355</v>
       </c>
-      <c r="P39" s="49">
+      <c r="R39" s="49">
         <v>0.78888888888888886</v>
       </c>
-      <c r="Q39" s="49">
+      <c r="S39" s="49">
         <v>0.44827586206896552</v>
       </c>
-      <c r="R39" s="49">
+      <c r="T39" s="49">
         <v>0.8125</v>
       </c>
-      <c r="S39" s="50">
+      <c r="U39" s="50">
         <v>0.57777777777777772</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="76"/>
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
@@ -38372,14 +38551,16 @@
       <c r="I40" s="76"/>
       <c r="J40" s="76"/>
       <c r="K40" s="76"/>
-      <c r="N40" s="76"/>
+      <c r="L40" s="76"/>
       <c r="O40" s="76"/>
       <c r="P40" s="76"/>
       <c r="Q40" s="76"/>
       <c r="R40" s="76"/>
       <c r="S40" s="76"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T40" s="76"/>
+      <c r="U40" s="76"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>3375</v>
       </c>
@@ -38392,497 +38573,576 @@
       <c r="H41" s="62"/>
       <c r="I41" s="62"/>
       <c r="J41" s="62"/>
-      <c r="K41" s="63"/>
-      <c r="N41" s="61" t="s">
+      <c r="K41" s="62"/>
+      <c r="L41" s="63"/>
+      <c r="O41" s="61" t="s">
         <v>3375</v>
       </c>
-      <c r="O41" s="62"/>
       <c r="P41" s="62"/>
       <c r="Q41" s="62"/>
       <c r="R41" s="62"/>
-      <c r="S41" s="63"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="63"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="82"/>
+      <c r="C42" s="37" t="s">
         <v>3383</v>
       </c>
-      <c r="C42" s="35" t="s">
+      <c r="D42" s="35" t="s">
         <v>3358</v>
       </c>
-      <c r="D42" s="36" t="s">
+      <c r="E42" s="36" t="s">
         <v>3359</v>
       </c>
-      <c r="E42" s="36" t="s">
+      <c r="F42" s="36" t="s">
         <v>3360</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="G42" s="37" t="s">
         <v>3361</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="H42" s="37" t="s">
         <v>3366</v>
       </c>
-      <c r="H42" s="52" t="s">
+      <c r="I42" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="I42" s="52" t="s">
+      <c r="J42" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="J42" s="52" t="s">
+      <c r="K42" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="K42" s="53" t="s">
+      <c r="L42" s="53" t="s">
         <v>3370</v>
       </c>
-      <c r="N42" s="35" t="s">
+      <c r="O42" s="81" t="s">
         <v>3348</v>
       </c>
-      <c r="O42" s="45" t="s">
+      <c r="P42" s="82"/>
+      <c r="Q42" s="37" t="s">
         <v>3383</v>
       </c>
-      <c r="P42" s="52" t="s">
+      <c r="R42" s="52" t="s">
         <v>3367</v>
       </c>
-      <c r="Q42" s="52" t="s">
+      <c r="S42" s="52" t="s">
         <v>3368</v>
       </c>
-      <c r="R42" s="52" t="s">
+      <c r="T42" s="52" t="s">
         <v>3369</v>
       </c>
-      <c r="S42" s="53" t="s">
+      <c r="U42" s="53" t="s">
         <v>3370</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="30" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="80"/>
+      <c r="C43" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="C43" s="30">
+      <c r="D43" s="30">
         <v>2</v>
       </c>
-      <c r="D43" s="21">
+      <c r="E43" s="21">
         <v>9</v>
       </c>
-      <c r="E43" s="21">
+      <c r="F43" s="21">
         <v>39</v>
       </c>
-      <c r="F43" s="33">
+      <c r="G43" s="33">
         <v>10</v>
       </c>
-      <c r="G43" s="33">
-        <f>SUM(C43:F43)</f>
+      <c r="H43" s="33">
+        <f>SUM(D43:G43)</f>
         <v>60</v>
       </c>
-      <c r="H43" s="40">
-        <f>(C43+D43)/G43</f>
+      <c r="I43" s="40">
+        <f>(D43+E43)/H43</f>
         <v>0.18333333333333332</v>
       </c>
-      <c r="I43" s="40">
-        <f>C43/(C43+E43)</f>
+      <c r="J43" s="40">
+        <f>D43/(D43+F43)</f>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="J43" s="40">
-        <f>C43/(C43+F43)</f>
+      <c r="K43" s="40">
+        <f>D43/(D43+G43)</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="K43" s="41">
-        <f>2*I43*J43/(I43+J43)</f>
+      <c r="L43" s="41">
+        <f>2*J43*K43/(J43+K43)</f>
         <v>7.547169811320753E-2</v>
       </c>
-      <c r="N43" s="30" t="s">
+      <c r="O43" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O43" s="46" t="s">
+      <c r="P43" s="80"/>
+      <c r="Q43" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="P43" s="40">
+      <c r="R43" s="40">
         <v>0.18333333333333332</v>
       </c>
-      <c r="Q43" s="40">
+      <c r="S43" s="40">
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="R43" s="40">
+      <c r="T43" s="40">
         <v>0.16666666666666666</v>
       </c>
-      <c r="S43" s="41">
+      <c r="U43" s="41">
         <v>7.547169811320753E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="80"/>
+      <c r="C44" s="83" t="s">
         <v>3355</v>
       </c>
-      <c r="C44" s="30">
+      <c r="D44" s="30">
         <v>8</v>
       </c>
-      <c r="D44" s="21">
+      <c r="E44" s="21">
         <v>8</v>
       </c>
-      <c r="E44" s="21">
+      <c r="F44" s="21">
         <v>34</v>
       </c>
-      <c r="F44" s="33">
+      <c r="G44" s="33">
         <v>10</v>
       </c>
-      <c r="G44" s="33">
-        <f>SUM(C44:F44)</f>
+      <c r="H44" s="33">
+        <f>SUM(D44:G44)</f>
         <v>60</v>
       </c>
-      <c r="H44" s="40">
-        <f t="shared" ref="H44:H49" si="21">(C44+D44)/G44</f>
+      <c r="I44" s="40">
+        <f t="shared" ref="I44:I49" si="21">(D44+E44)/H44</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="I44" s="40">
-        <f t="shared" ref="I44:I49" si="22">C44/(C44+E44)</f>
+      <c r="J44" s="40">
+        <f t="shared" ref="J44:J49" si="22">D44/(D44+F44)</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="J44" s="40">
-        <f t="shared" ref="J44:J49" si="23">C44/(C44+F44)</f>
+      <c r="K44" s="40">
+        <f t="shared" ref="K44:K49" si="23">D44/(D44+G44)</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="K44" s="41">
-        <f t="shared" ref="K44:K49" si="24">2*I44*J44/(I44+J44)</f>
+      <c r="L44" s="41">
+        <f t="shared" ref="L44:L49" si="24">2*J44*K44/(J44+K44)</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="N44" s="30" t="s">
+      <c r="O44" s="77" t="s">
         <v>3349</v>
       </c>
-      <c r="O44" s="46" t="s">
+      <c r="P44" s="80"/>
+      <c r="Q44" s="83" t="s">
         <v>3355</v>
       </c>
-      <c r="P44" s="40">
+      <c r="R44" s="40">
         <v>0.26666666666666666</v>
       </c>
-      <c r="Q44" s="40">
+      <c r="S44" s="40">
         <v>0.19047619047619047</v>
       </c>
-      <c r="R44" s="40">
+      <c r="T44" s="40">
         <v>0.44444444444444442</v>
       </c>
-      <c r="S44" s="41">
+      <c r="U44" s="41">
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="30" t="s">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="80"/>
+      <c r="C45" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="C45" s="30">
+      <c r="D45" s="30">
         <v>7</v>
       </c>
-      <c r="D45" s="21">
+      <c r="E45" s="21">
         <v>26</v>
       </c>
-      <c r="E45" s="21">
+      <c r="F45" s="21">
         <v>24</v>
       </c>
-      <c r="F45" s="33">
+      <c r="G45" s="33">
         <v>3</v>
       </c>
-      <c r="G45" s="33">
-        <f t="shared" ref="G45:G49" si="25">SUM(C45:F45)</f>
+      <c r="H45" s="33">
+        <f t="shared" ref="H45:H49" si="25">SUM(D45:G45)</f>
         <v>60</v>
       </c>
-      <c r="H45" s="40">
+      <c r="I45" s="40">
         <f t="shared" si="21"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="I45" s="40">
+      <c r="J45" s="40">
         <f t="shared" si="22"/>
         <v>0.22580645161290322</v>
       </c>
-      <c r="J45" s="40">
+      <c r="K45" s="40">
         <f t="shared" si="23"/>
         <v>0.7</v>
       </c>
-      <c r="K45" s="41">
+      <c r="L45" s="41">
         <f t="shared" si="24"/>
         <v>0.34146341463414631</v>
       </c>
-      <c r="N45" s="30" t="s">
+      <c r="O45" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O45" s="46" t="s">
+      <c r="P45" s="80"/>
+      <c r="Q45" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="P45" s="40">
+      <c r="R45" s="40">
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q45" s="40">
+      <c r="S45" s="40">
         <v>0.22580645161290322</v>
       </c>
-      <c r="R45" s="40">
+      <c r="T45" s="40">
         <v>0.7</v>
       </c>
-      <c r="S45" s="41">
+      <c r="U45" s="41">
         <v>0.34146341463414631</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="30" t="s">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="80"/>
+      <c r="C46" s="83" t="s">
         <v>3355</v>
       </c>
-      <c r="C46" s="30">
+      <c r="D46" s="30">
         <v>13</v>
       </c>
-      <c r="D46" s="21">
+      <c r="E46" s="21">
         <v>21</v>
       </c>
-      <c r="E46" s="21">
+      <c r="F46" s="21">
         <v>24</v>
       </c>
-      <c r="F46" s="33">
+      <c r="G46" s="33">
         <v>2</v>
       </c>
-      <c r="G46" s="33">
+      <c r="H46" s="33">
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
-      <c r="H46" s="40">
+      <c r="I46" s="40">
         <f t="shared" si="21"/>
         <v>0.56666666666666665</v>
       </c>
-      <c r="I46" s="40">
+      <c r="J46" s="40">
         <f t="shared" si="22"/>
         <v>0.35135135135135137</v>
       </c>
-      <c r="J46" s="42">
+      <c r="K46" s="42">
         <f t="shared" si="23"/>
         <v>0.8666666666666667</v>
       </c>
-      <c r="K46" s="41">
+      <c r="L46" s="41">
         <f t="shared" si="24"/>
         <v>0.50000000000000011</v>
       </c>
-      <c r="N46" s="30" t="s">
+      <c r="O46" s="77" t="s">
         <v>3350</v>
       </c>
-      <c r="O46" s="46" t="s">
+      <c r="P46" s="80"/>
+      <c r="Q46" s="83" t="s">
         <v>3355</v>
       </c>
-      <c r="P46" s="40">
+      <c r="R46" s="40">
         <v>0.56666666666666665</v>
       </c>
-      <c r="Q46" s="40">
+      <c r="S46" s="40">
         <v>0.35135135135135137</v>
       </c>
-      <c r="R46" s="42">
+      <c r="T46" s="42">
         <v>0.8666666666666667</v>
       </c>
-      <c r="S46" s="41">
+      <c r="U46" s="41">
         <v>0.50000000000000011</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="33" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C47" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="C47" s="30">
+      <c r="D47" s="30">
         <v>14</v>
       </c>
-      <c r="D47" s="21">
+      <c r="E47" s="21">
         <v>32</v>
       </c>
-      <c r="E47" s="21">
+      <c r="F47" s="21">
         <v>7</v>
       </c>
-      <c r="F47" s="33">
+      <c r="G47" s="33">
         <v>7</v>
       </c>
-      <c r="G47" s="33">
+      <c r="H47" s="33">
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
-      <c r="H47" s="40">
+      <c r="I47" s="40">
         <f t="shared" si="21"/>
         <v>0.76666666666666672</v>
       </c>
-      <c r="I47" s="40">
+      <c r="J47" s="40">
         <f t="shared" si="22"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="J47" s="40">
+      <c r="K47" s="40">
         <f t="shared" si="23"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="K47" s="41">
+      <c r="L47" s="41">
         <f t="shared" si="24"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="N47" s="30" t="s">
+      <c r="O47" s="30" t="s">
         <v>3351</v>
       </c>
-      <c r="O47" s="46" t="s">
+      <c r="P47" s="33" t="s">
+        <v>3021</v>
+      </c>
+      <c r="Q47" s="83" t="s">
         <v>3354</v>
       </c>
-      <c r="P47" s="40">
+      <c r="R47" s="40">
         <v>0.76666666666666672</v>
       </c>
-      <c r="Q47" s="40">
+      <c r="S47" s="40">
         <v>0.66666666666666663</v>
       </c>
-      <c r="R47" s="40">
+      <c r="T47" s="40">
         <v>0.66666666666666663</v>
       </c>
-      <c r="S47" s="41">
+      <c r="U47" s="41">
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="33" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C48" s="83" t="s">
         <v>3356</v>
       </c>
-      <c r="C48" s="30">
+      <c r="D48" s="30">
         <v>8</v>
       </c>
-      <c r="D48" s="21">
+      <c r="E48" s="21">
         <v>29</v>
       </c>
-      <c r="E48" s="21">
+      <c r="F48" s="21">
         <v>15</v>
       </c>
-      <c r="F48" s="33">
+      <c r="G48" s="33">
         <v>8</v>
       </c>
-      <c r="G48" s="33">
+      <c r="H48" s="33">
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
-      <c r="H48" s="40">
+      <c r="I48" s="40">
         <f t="shared" si="21"/>
         <v>0.6166666666666667</v>
       </c>
-      <c r="I48" s="40">
+      <c r="J48" s="40">
         <f t="shared" si="22"/>
         <v>0.34782608695652173</v>
       </c>
-      <c r="J48" s="40">
+      <c r="K48" s="40">
         <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
-      <c r="K48" s="41">
+      <c r="L48" s="41">
         <f t="shared" si="24"/>
         <v>0.41025641025641024</v>
       </c>
-      <c r="N48" s="30" t="s">
+      <c r="O48" s="30" t="s">
         <v>3352</v>
       </c>
-      <c r="O48" s="46" t="s">
+      <c r="P48" s="33" t="s">
+        <v>3021</v>
+      </c>
+      <c r="Q48" s="83" t="s">
         <v>3356</v>
       </c>
-      <c r="P48" s="40">
+      <c r="R48" s="40">
         <v>0.6166666666666667</v>
       </c>
-      <c r="Q48" s="40">
+      <c r="S48" s="40">
         <v>0.34782608695652173</v>
       </c>
-      <c r="R48" s="40">
+      <c r="T48" s="40">
         <v>0.5</v>
       </c>
-      <c r="S48" s="41">
+      <c r="U48" s="41">
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="34" t="s">
+        <v>3021</v>
+      </c>
+      <c r="C49" s="34" t="s">
         <v>3355</v>
       </c>
-      <c r="C49" s="31">
+      <c r="D49" s="31">
         <v>20</v>
       </c>
-      <c r="D49" s="32">
+      <c r="E49" s="32">
         <v>30</v>
       </c>
-      <c r="E49" s="32">
+      <c r="F49" s="32">
         <v>6</v>
       </c>
-      <c r="F49" s="34">
+      <c r="G49" s="34">
         <v>4</v>
       </c>
-      <c r="G49" s="34">
+      <c r="H49" s="34">
         <f t="shared" si="25"/>
         <v>60</v>
       </c>
-      <c r="H49" s="43">
+      <c r="I49" s="43">
         <f t="shared" si="21"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="I49" s="43">
+      <c r="J49" s="43">
         <f t="shared" si="22"/>
         <v>0.76923076923076927</v>
       </c>
-      <c r="J49" s="49">
+      <c r="K49" s="49">
         <f t="shared" si="23"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="K49" s="44">
+      <c r="L49" s="44">
         <f t="shared" si="24"/>
         <v>0.8</v>
       </c>
-      <c r="N49" s="31" t="s">
+      <c r="O49" s="31" t="s">
         <v>3353</v>
       </c>
-      <c r="O49" s="47" t="s">
+      <c r="P49" s="34" t="s">
+        <v>3021</v>
+      </c>
+      <c r="Q49" s="34" t="s">
         <v>3355</v>
       </c>
-      <c r="P49" s="43">
+      <c r="R49" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q49" s="43">
+      <c r="S49" s="43">
         <v>0.76923076923076927</v>
       </c>
-      <c r="R49" s="49">
+      <c r="T49" s="49">
         <v>0.83333333333333337</v>
       </c>
-      <c r="S49" s="44">
+      <c r="U49" s="44">
         <v>0.8</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E50" s="21"/>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="N41:S41"/>
-    <mergeCell ref="N11:S11"/>
-    <mergeCell ref="N21:S21"/>
-    <mergeCell ref="N30:S30"/>
-    <mergeCell ref="N31:S31"/>
-    <mergeCell ref="N40:S40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A21:K21"/>
-    <mergeCell ref="A31:K31"/>
+  <mergeCells count="63">
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A20:L20"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A31:L31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="O41:U41"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="O21:U21"/>
+    <mergeCell ref="O30:U30"/>
+    <mergeCell ref="O31:U31"/>
+    <mergeCell ref="O40:U40"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>